--- a/Votes/VoteGuide.xlsx
+++ b/Votes/VoteGuide.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/Votes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8D93BA-1E35-554A-A770-780DD2D03E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E0333-E8F4-664F-8666-580C49600106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="-20560" windowWidth="52840" windowHeight="16800" xr2:uid="{36A24679-F640-1941-A82D-D01C55315735}"/>
+    <workbookView xWindow="4240" yWindow="1700" windowWidth="42700" windowHeight="23680" xr2:uid="{36A24679-F640-1941-A82D-D01C55315735}"/>
   </bookViews>
   <sheets>
     <sheet name="Vote guide" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="764">
   <si>
     <t>Town Meeting Session</t>
   </si>
@@ -2268,6 +2268,66 @@
   </si>
   <si>
     <t>Night / Date</t>
+  </si>
+  <si>
+    <t>January  2023 Special Town Meeting</t>
+  </si>
+  <si>
+    <t>Night 1 (Jan 10 2023)</t>
+  </si>
+  <si>
+    <t>Article 2 Motion to Terminate Debate</t>
+  </si>
+  <si>
+    <t>To require new construction (and significant renovations) to be either fully electric or "all-electric ready."</t>
+  </si>
+  <si>
+    <t>Procedural vote: Motion to terminate debate on Article 1: To require new construction (and significant renovations) to be either fully electric or "all-electric ready."</t>
+  </si>
+  <si>
+    <t>By adopting this state law, the town committed to mailing a "Voter Information Book" (similar to the state's "Red Book") to every household before local elections.</t>
+  </si>
+  <si>
+    <t>Procedural vote: Motion to terminate debate on Article 2: By adopting this state law, the town committed to mailing a "Voter Information Book" (similar to the state's "Red Book") to every household before local elections.</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/DocumentCenter/View/37984/WARRANT-Jan-10-2023-Special-Town-Meeting</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/DocumentCenter/View/38361/ARTICLE-1-Supp-1---AC-Recomm</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/DocumentCenter/View/38362/ARTICLE-2-Supp-1---AC-Recomm</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_1</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_2</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_3</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_5</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_6</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_7</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_8</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_9</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_12</t>
+  </si>
+  <si>
+    <t>https://www.brooklinema.gov/3599/Current-Town-Meeting-Files#tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_16</t>
   </si>
 </sst>
 </file>
@@ -2553,11 +2613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A78A92-63F6-C842-AF1C-A20E246953DE}">
-  <dimension ref="A1:H446"/>
+  <dimension ref="A1:H450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>754</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2638,7 +2698,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>755</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2660,7 +2720,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>756</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2682,7 +2742,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2704,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>9</v>
+        <v>758</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>18</v>
@@ -2728,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>759</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
@@ -2752,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>9</v>
+        <v>759</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>18</v>
@@ -2776,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>760</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2798,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>9</v>
+        <v>761</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>18</v>
@@ -2822,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>9</v>
+        <v>762</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2844,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>9</v>
+        <v>763</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3033,7 +3093,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>684</v>
       </c>
@@ -3055,7 +3115,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>684</v>
       </c>
@@ -3077,7 +3137,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>684</v>
       </c>
@@ -3099,7 +3159,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>684</v>
       </c>
@@ -3121,7 +3181,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>684</v>
       </c>
@@ -3143,7 +3203,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>684</v>
       </c>
@@ -3165,7 +3225,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>684</v>
       </c>
@@ -3187,7 +3247,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>684</v>
       </c>
@@ -3209,7 +3269,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>684</v>
       </c>
@@ -3231,7 +3291,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>684</v>
       </c>
@@ -3253,7 +3313,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>684</v>
       </c>
@@ -3275,7 +3335,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>684</v>
       </c>
@@ -3297,7 +3357,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>684</v>
       </c>
@@ -3319,7 +3379,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>684</v>
       </c>
@@ -3341,7 +3401,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>684</v>
       </c>
@@ -3363,7 +3423,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>684</v>
       </c>
@@ -3473,7 +3533,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>684</v>
       </c>
@@ -3495,7 +3555,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>684</v>
       </c>
@@ -3517,7 +3577,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>684</v>
       </c>
@@ -3539,7 +3599,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>684</v>
       </c>
@@ -3561,7 +3621,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>684</v>
       </c>
@@ -3583,7 +3643,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>684</v>
       </c>
@@ -3605,7 +3665,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>684</v>
       </c>
@@ -3649,7 +3709,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>684</v>
       </c>
@@ -3671,7 +3731,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>684</v>
       </c>
@@ -3693,7 +3753,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>684</v>
       </c>
@@ -3715,7 +3775,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>684</v>
       </c>
@@ -3737,7 +3797,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>684</v>
       </c>
@@ -3759,7 +3819,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>684</v>
       </c>
@@ -3781,7 +3841,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>684</v>
       </c>
@@ -3803,7 +3863,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>684</v>
       </c>
@@ -3825,7 +3885,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>684</v>
       </c>
@@ -3847,7 +3907,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>684</v>
       </c>
@@ -3869,7 +3929,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>684</v>
       </c>
@@ -3891,7 +3951,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>684</v>
       </c>
@@ -3913,7 +3973,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>684</v>
       </c>
@@ -3935,7 +3995,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>684</v>
       </c>
@@ -3957,7 +4017,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>684</v>
       </c>
@@ -3979,7 +4039,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>684</v>
       </c>
@@ -4001,7 +4061,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>684</v>
       </c>
@@ -4023,7 +4083,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>685</v>
       </c>
@@ -4045,7 +4105,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>685</v>
       </c>
@@ -4067,7 +4127,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>685</v>
       </c>
@@ -4089,7 +4149,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>685</v>
       </c>
@@ -4111,7 +4171,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>685</v>
       </c>
@@ -4133,7 +4193,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>685</v>
       </c>
@@ -4177,7 +4237,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>685</v>
       </c>
@@ -4243,7 +4303,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>685</v>
       </c>
@@ -4265,7 +4325,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>685</v>
       </c>
@@ -4287,7 +4347,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>685</v>
       </c>
@@ -4353,7 +4413,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>685</v>
       </c>
@@ -4397,7 +4457,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>685</v>
       </c>
@@ -4441,7 +4501,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>685</v>
       </c>
@@ -4463,7 +4523,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>685</v>
       </c>
@@ -4485,7 +4545,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>685</v>
       </c>
@@ -4507,7 +4567,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>685</v>
       </c>
@@ -4573,7 +4633,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>685</v>
       </c>
@@ -4595,7 +4655,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>685</v>
       </c>
@@ -4617,7 +4677,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>685</v>
       </c>
@@ -4639,7 +4699,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>686</v>
       </c>
@@ -4661,7 +4721,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>686</v>
       </c>
@@ -4683,7 +4743,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>686</v>
       </c>
@@ -4705,7 +4765,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>686</v>
       </c>
@@ -4727,7 +4787,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>686</v>
       </c>
@@ -4749,7 +4809,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>686</v>
       </c>
@@ -4771,7 +4831,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>686</v>
       </c>
@@ -4793,7 +4853,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>686</v>
       </c>
@@ -4815,7 +4875,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>686</v>
       </c>
@@ -4837,7 +4897,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>686</v>
       </c>
@@ -4859,7 +4919,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>686</v>
       </c>
@@ -4881,7 +4941,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>686</v>
       </c>
@@ -4903,7 +4963,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>686</v>
       </c>
@@ -4925,7 +4985,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>686</v>
       </c>
@@ -4947,7 +5007,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>686</v>
       </c>
@@ -4969,7 +5029,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>686</v>
       </c>
@@ -4991,7 +5051,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>686</v>
       </c>
@@ -5013,7 +5073,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>686</v>
       </c>
@@ -5035,7 +5095,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>686</v>
       </c>
@@ -5057,7 +5117,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>686</v>
       </c>
@@ -5079,7 +5139,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>686</v>
       </c>
@@ -5101,7 +5161,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>686</v>
       </c>
@@ -5123,7 +5183,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>686</v>
       </c>
@@ -5145,7 +5205,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>686</v>
       </c>
@@ -5167,7 +5227,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>686</v>
       </c>
@@ -5189,7 +5249,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>686</v>
       </c>
@@ -5211,7 +5271,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>686</v>
       </c>
@@ -5233,7 +5293,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>686</v>
       </c>
@@ -5255,7 +5315,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>686</v>
       </c>
@@ -5277,7 +5337,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>686</v>
       </c>
@@ -5299,7 +5359,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>686</v>
       </c>
@@ -5321,7 +5381,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>686</v>
       </c>
@@ -5343,7 +5403,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>686</v>
       </c>
@@ -5365,7 +5425,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>686</v>
       </c>
@@ -5387,7 +5447,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>687</v>
       </c>
@@ -5431,7 +5491,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>687</v>
       </c>
@@ -5475,7 +5535,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>687</v>
       </c>
@@ -5497,7 +5557,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>687</v>
       </c>
@@ -5541,7 +5601,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>687</v>
       </c>
@@ -5563,7 +5623,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>687</v>
       </c>
@@ -5585,7 +5645,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>687</v>
       </c>
@@ -5607,7 +5667,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>687</v>
       </c>
@@ -5629,7 +5689,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>687</v>
       </c>
@@ -5651,7 +5711,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>687</v>
       </c>
@@ -5673,7 +5733,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>687</v>
       </c>
@@ -5695,7 +5755,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>687</v>
       </c>
@@ -5717,7 +5777,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>687</v>
       </c>
@@ -5739,7 +5799,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>687</v>
       </c>
@@ -5761,7 +5821,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>687</v>
       </c>
@@ -5783,7 +5843,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>687</v>
       </c>
@@ -5805,7 +5865,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>687</v>
       </c>
@@ -5827,7 +5887,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>687</v>
       </c>
@@ -5849,7 +5909,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>687</v>
       </c>
@@ -5871,7 +5931,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>687</v>
       </c>
@@ -5893,7 +5953,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>687</v>
       </c>
@@ -5915,7 +5975,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>688</v>
       </c>
@@ -5937,7 +5997,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>688</v>
       </c>
@@ -5959,7 +6019,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>688</v>
       </c>
@@ -5981,7 +6041,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>688</v>
       </c>
@@ -6003,7 +6063,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>688</v>
       </c>
@@ -6025,7 +6085,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>688</v>
       </c>
@@ -6047,7 +6107,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>688</v>
       </c>
@@ -6069,7 +6129,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>688</v>
       </c>
@@ -6091,7 +6151,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>688</v>
       </c>
@@ -6113,7 +6173,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>688</v>
       </c>
@@ -6135,7 +6195,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>688</v>
       </c>
@@ -6179,7 +6239,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>688</v>
       </c>
@@ -6201,7 +6261,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>688</v>
       </c>
@@ -6223,7 +6283,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>688</v>
       </c>
@@ -6245,7 +6305,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>688</v>
       </c>
@@ -6267,7 +6327,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>688</v>
       </c>
@@ -6289,7 +6349,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>688</v>
       </c>
@@ -6311,7 +6371,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>688</v>
       </c>
@@ -6333,7 +6393,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>688</v>
       </c>
@@ -6355,7 +6415,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>688</v>
       </c>
@@ -6377,7 +6437,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>688</v>
       </c>
@@ -6443,7 +6503,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>688</v>
       </c>
@@ -6465,7 +6525,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>688</v>
       </c>
@@ -6487,7 +6547,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>688</v>
       </c>
@@ -6531,7 +6591,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>688</v>
       </c>
@@ -6553,7 +6613,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>688</v>
       </c>
@@ -6575,7 +6635,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>688</v>
       </c>
@@ -6619,7 +6679,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>688</v>
       </c>
@@ -6641,7 +6701,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>688</v>
       </c>
@@ -6663,7 +6723,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>688</v>
       </c>
@@ -6685,7 +6745,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>688</v>
       </c>
@@ -6707,7 +6767,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>688</v>
       </c>
@@ -6729,7 +6789,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>688</v>
       </c>
@@ -6751,7 +6811,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>688</v>
       </c>
@@ -6773,7 +6833,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>688</v>
       </c>
@@ -6795,7 +6855,7 @@
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>688</v>
       </c>
@@ -6817,7 +6877,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>688</v>
       </c>
@@ -6883,106 +6943,106 @@
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
     </row>
-    <row r="196" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>176</v>
+        <v>572</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>315</v>
+        <v>748</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>51</v>
+        <v>751</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>316</v>
+        <v>752</v>
       </c>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>318</v>
+        <v>747</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>51</v>
+        <v>751</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>316</v>
+        <v>752</v>
       </c>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>319</v>
+        <v>746</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>320</v>
+        <v>750</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>51</v>
+        <v>751</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>316</v>
+        <v>753</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>321</v>
+        <v>749</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>51</v>
+        <v>751</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>316</v>
+        <v>753</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>716</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>51</v>
@@ -6993,18 +7053,18 @@
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>716</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>51</v>
@@ -7015,18 +7075,18 @@
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
     </row>
-    <row r="202" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>716</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>51</v>
@@ -7037,7 +7097,7 @@
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>689</v>
       </c>
@@ -7045,10 +7105,10 @@
         <v>716</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>51</v>
@@ -7059,7 +7119,7 @@
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
     </row>
-    <row r="204" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>689</v>
       </c>
@@ -7067,10 +7127,10 @@
         <v>716</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>51</v>
@@ -7081,7 +7141,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>689</v>
       </c>
@@ -7089,10 +7149,10 @@
         <v>716</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>51</v>
@@ -7103,18 +7163,18 @@
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
     </row>
-    <row r="206" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>51</v>
@@ -7125,18 +7185,18 @@
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
-    <row r="207" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>51</v>
@@ -7147,18 +7207,18 @@
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
     </row>
-    <row r="208" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>51</v>
@@ -7169,18 +7229,18 @@
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>51</v>
@@ -7191,7 +7251,7 @@
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
     </row>
-    <row r="210" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>689</v>
       </c>
@@ -7199,10 +7259,10 @@
         <v>717</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>51</v>
@@ -7213,7 +7273,7 @@
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>689</v>
       </c>
@@ -7221,10 +7281,10 @@
         <v>717</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>51</v>
@@ -7235,7 +7295,7 @@
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>689</v>
       </c>
@@ -7243,10 +7303,10 @@
         <v>717</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>51</v>
@@ -7257,7 +7317,7 @@
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>689</v>
       </c>
@@ -7265,10 +7325,10 @@
         <v>717</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>51</v>
@@ -7279,7 +7339,7 @@
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
     </row>
-    <row r="214" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>689</v>
       </c>
@@ -7287,10 +7347,10 @@
         <v>717</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>51</v>
@@ -7301,7 +7361,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
-    <row r="215" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>689</v>
       </c>
@@ -7309,10 +7369,10 @@
         <v>717</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>51</v>
@@ -7323,18 +7383,18 @@
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
-    <row r="216" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>51</v>
@@ -7345,18 +7405,18 @@
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>51</v>
@@ -7367,18 +7427,18 @@
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
     </row>
-    <row r="218" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>51</v>
@@ -7389,18 +7449,18 @@
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>51</v>
@@ -7411,7 +7471,7 @@
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>689</v>
       </c>
@@ -7419,10 +7479,10 @@
         <v>718</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>51</v>
@@ -7433,7 +7493,7 @@
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>689</v>
       </c>
@@ -7441,10 +7501,10 @@
         <v>718</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>349</v>
+        <v>102</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>51</v>
@@ -7455,18 +7515,18 @@
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>51</v>
@@ -7477,18 +7537,18 @@
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>51</v>
@@ -7499,18 +7559,18 @@
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
     </row>
-    <row r="224" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>51</v>
@@ -7521,18 +7581,18 @@
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
     </row>
-    <row r="225" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>51</v>
@@ -7543,7 +7603,7 @@
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>689</v>
       </c>
@@ -7551,10 +7611,10 @@
         <v>719</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>51</v>
@@ -7565,7 +7625,7 @@
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
     </row>
-    <row r="227" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>689</v>
       </c>
@@ -7573,10 +7633,10 @@
         <v>719</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>51</v>
@@ -7587,7 +7647,7 @@
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
     </row>
-    <row r="228" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>689</v>
       </c>
@@ -7595,10 +7655,10 @@
         <v>719</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>51</v>
@@ -7609,7 +7669,7 @@
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
-    <row r="229" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>689</v>
       </c>
@@ -7617,10 +7677,10 @@
         <v>719</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>51</v>
@@ -7631,7 +7691,7 @@
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>689</v>
       </c>
@@ -7639,10 +7699,10 @@
         <v>719</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>51</v>
@@ -7653,7 +7713,7 @@
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
-    <row r="231" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>689</v>
       </c>
@@ -7661,10 +7721,10 @@
         <v>719</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>364</v>
+        <v>150</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>51</v>
@@ -7675,7 +7735,7 @@
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
     </row>
-    <row r="232" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>689</v>
       </c>
@@ -7683,10 +7743,10 @@
         <v>719</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>51</v>
@@ -7697,7 +7757,7 @@
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>689</v>
       </c>
@@ -7705,10 +7765,10 @@
         <v>719</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>51</v>
@@ -7719,18 +7779,18 @@
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
     </row>
-    <row r="234" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>51</v>
@@ -7741,18 +7801,18 @@
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
     </row>
-    <row r="235" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>51</v>
@@ -7763,18 +7823,18 @@
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
     </row>
-    <row r="236" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>51</v>
@@ -7785,18 +7845,18 @@
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
-    <row r="237" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>375</v>
+        <v>27</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>51</v>
@@ -7807,7 +7867,7 @@
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
     </row>
-    <row r="238" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>689</v>
       </c>
@@ -7815,10 +7875,10 @@
         <v>720</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>51</v>
@@ -7829,18 +7889,18 @@
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
     </row>
-    <row r="239" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>51</v>
@@ -7851,18 +7911,18 @@
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
     </row>
-    <row r="240" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>51</v>
@@ -7873,18 +7933,18 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>120</v>
+        <v>375</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>51</v>
@@ -7895,18 +7955,18 @@
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
     </row>
-    <row r="242" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>51</v>
@@ -7917,7 +7977,7 @@
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
     </row>
-    <row r="243" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>689</v>
       </c>
@@ -7925,10 +7985,10 @@
         <v>721</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>383</v>
+        <v>6</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>384</v>
+        <v>53</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>51</v>
@@ -7939,7 +7999,7 @@
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
-    <row r="244" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>689</v>
       </c>
@@ -7947,10 +8007,10 @@
         <v>721</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>51</v>
@@ -7961,18 +8021,18 @@
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
     </row>
-    <row r="245" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>386</v>
+        <v>120</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>51</v>
@@ -7983,18 +8043,18 @@
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
     </row>
-    <row r="246" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>51</v>
@@ -8005,18 +8065,18 @@
       <c r="G246" s="6"/>
       <c r="H246" s="6"/>
     </row>
-    <row r="247" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>51</v>
@@ -8027,18 +8087,18 @@
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
-    <row r="248" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>392</v>
+        <v>87</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>51</v>
@@ -8049,7 +8109,7 @@
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>689</v>
       </c>
@@ -8057,10 +8117,10 @@
         <v>722</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>51</v>
@@ -8071,7 +8131,7 @@
       <c r="G249" s="6"/>
       <c r="H249" s="6"/>
     </row>
-    <row r="250" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>689</v>
       </c>
@@ -8079,10 +8139,10 @@
         <v>722</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>51</v>
@@ -8093,7 +8153,7 @@
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
     </row>
-    <row r="251" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>689</v>
       </c>
@@ -8101,10 +8161,10 @@
         <v>722</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>51</v>
@@ -8115,7 +8175,7 @@
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
     </row>
-    <row r="252" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>689</v>
       </c>
@@ -8123,10 +8183,10 @@
         <v>722</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>51</v>
@@ -8137,7 +8197,7 @@
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
     </row>
-    <row r="253" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>689</v>
       </c>
@@ -8145,10 +8205,10 @@
         <v>722</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>51</v>
@@ -8159,7 +8219,7 @@
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
-    <row r="254" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>689</v>
       </c>
@@ -8167,10 +8227,10 @@
         <v>722</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>51</v>
@@ -8181,7 +8241,7 @@
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
     </row>
-    <row r="255" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>689</v>
       </c>
@@ -8189,10 +8249,10 @@
         <v>722</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>51</v>
@@ -8203,18 +8263,18 @@
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
     </row>
-    <row r="256" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>51</v>
@@ -8225,18 +8285,18 @@
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
     </row>
-    <row r="257" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>51</v>
@@ -8247,18 +8307,18 @@
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
-    <row r="258" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>51</v>
@@ -8269,18 +8329,18 @@
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
     </row>
-    <row r="259" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>689</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>51</v>
@@ -8291,7 +8351,7 @@
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
     </row>
-    <row r="260" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>689</v>
       </c>
@@ -8299,10 +8359,10 @@
         <v>723</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>51</v>
@@ -8313,7 +8373,7 @@
       <c r="G260" s="6"/>
       <c r="H260" s="6"/>
     </row>
-    <row r="261" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>689</v>
       </c>
@@ -8321,10 +8381,10 @@
         <v>723</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>51</v>
@@ -8335,7 +8395,7 @@
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
     </row>
-    <row r="262" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>689</v>
       </c>
@@ -8343,10 +8403,10 @@
         <v>723</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E262" s="6" t="s">
         <v>51</v>
@@ -8357,7 +8417,7 @@
       <c r="G262" s="6"/>
       <c r="H262" s="6"/>
     </row>
-    <row r="263" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>689</v>
       </c>
@@ -8365,10 +8425,10 @@
         <v>723</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>51</v>
@@ -8379,95 +8439,95 @@
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
     </row>
-    <row r="264" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>49</v>
+        <v>416</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
     </row>
-    <row r="265" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>53</v>
+        <v>419</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
-    <row r="266" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>178</v>
+        <v>421</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>56</v>
+        <v>423</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
     </row>
-    <row r="268" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>690</v>
       </c>
@@ -8475,10 +8535,10 @@
         <v>724</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>51</v>
@@ -8489,7 +8549,7 @@
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>690</v>
       </c>
@@ -8497,10 +8557,10 @@
         <v>724</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>427</v>
+        <v>6</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>428</v>
+        <v>53</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>51</v>
@@ -8511,7 +8571,7 @@
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
     </row>
-    <row r="270" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>690</v>
       </c>
@@ -8519,10 +8579,10 @@
         <v>724</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>429</v>
+        <v>10</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>430</v>
+        <v>178</v>
       </c>
       <c r="E270" s="6" t="s">
         <v>51</v>
@@ -8533,7 +8593,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>690</v>
       </c>
@@ -8541,10 +8601,10 @@
         <v>724</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>432</v>
+        <v>56</v>
       </c>
       <c r="E271" s="6" t="s">
         <v>51</v>
@@ -8555,7 +8615,7 @@
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
     </row>
-    <row r="272" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>690</v>
       </c>
@@ -8563,10 +8623,10 @@
         <v>724</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>433</v>
+        <v>16</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E272" s="6" t="s">
         <v>51</v>
@@ -8577,7 +8637,7 @@
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
     </row>
-    <row r="273" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>690</v>
       </c>
@@ -8585,10 +8645,10 @@
         <v>724</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E273" s="6" t="s">
         <v>51</v>
@@ -8599,7 +8659,7 @@
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
     </row>
-    <row r="274" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>690</v>
       </c>
@@ -8607,10 +8667,10 @@
         <v>724</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E274" s="6" t="s">
         <v>51</v>
@@ -8621,7 +8681,7 @@
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
     </row>
-    <row r="275" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>690</v>
       </c>
@@ -8629,10 +8689,10 @@
         <v>724</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E275" s="6" t="s">
         <v>51</v>
@@ -8643,7 +8703,7 @@
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
     </row>
-    <row r="276" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>690</v>
       </c>
@@ -8651,10 +8711,10 @@
         <v>724</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E276" s="6" t="s">
         <v>51</v>
@@ -8665,7 +8725,7 @@
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
     </row>
-    <row r="277" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>690</v>
       </c>
@@ -8673,10 +8733,10 @@
         <v>724</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E277" s="6" t="s">
         <v>51</v>
@@ -8687,7 +8747,7 @@
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
     </row>
-    <row r="278" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>690</v>
       </c>
@@ -8695,10 +8755,10 @@
         <v>724</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>51</v>
@@ -8709,7 +8769,7 @@
       <c r="G278" s="6"/>
       <c r="H278" s="6"/>
     </row>
-    <row r="279" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>690</v>
       </c>
@@ -8717,10 +8777,10 @@
         <v>724</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>51</v>
@@ -8731,7 +8791,7 @@
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
     </row>
-    <row r="280" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>690</v>
       </c>
@@ -8739,10 +8799,10 @@
         <v>724</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>51</v>
@@ -8753,7 +8813,7 @@
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
     </row>
-    <row r="281" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>690</v>
       </c>
@@ -8761,10 +8821,10 @@
         <v>724</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>51</v>
@@ -8775,18 +8835,18 @@
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
     </row>
-    <row r="282" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>57</v>
+        <v>445</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>51</v>
@@ -8797,18 +8857,18 @@
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
     </row>
-    <row r="283" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>51</v>
@@ -8819,18 +8879,18 @@
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
     </row>
-    <row r="284" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>51</v>
@@ -8841,18 +8901,18 @@
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
     </row>
-    <row r="285" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>51</v>
@@ -8863,7 +8923,7 @@
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
     </row>
-    <row r="286" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>690</v>
       </c>
@@ -8871,10 +8931,10 @@
         <v>725</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>460</v>
+        <v>57</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>51</v>
@@ -8885,18 +8945,18 @@
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
     </row>
-    <row r="287" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E287" s="6" t="s">
         <v>51</v>
@@ -8907,18 +8967,18 @@
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
     </row>
-    <row r="288" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E288" s="6" t="s">
         <v>51</v>
@@ -8929,18 +8989,18 @@
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
     </row>
-    <row r="289" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E289" s="6" t="s">
         <v>51</v>
@@ -8951,18 +9011,18 @@
       <c r="G289" s="6"/>
       <c r="H289" s="6"/>
     </row>
-    <row r="290" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E290" s="6" t="s">
         <v>51</v>
@@ -8973,7 +9033,7 @@
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
     </row>
-    <row r="291" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>690</v>
       </c>
@@ -8981,10 +9041,10 @@
         <v>726</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>23</v>
+        <v>462</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E291" s="6" t="s">
         <v>51</v>
@@ -8995,7 +9055,7 @@
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
     </row>
-    <row r="292" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>690</v>
       </c>
@@ -9003,10 +9063,10 @@
         <v>726</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>72</v>
+        <v>464</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>51</v>
@@ -9017,7 +9077,7 @@
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
     </row>
-    <row r="293" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>690</v>
       </c>
@@ -9025,10 +9085,10 @@
         <v>726</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>51</v>
@@ -9039,7 +9099,7 @@
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
     </row>
-    <row r="294" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>690</v>
       </c>
@@ -9047,10 +9107,10 @@
         <v>726</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>148</v>
+        <v>467</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>51</v>
@@ -9061,7 +9121,7 @@
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
     </row>
-    <row r="295" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>690</v>
       </c>
@@ -9069,10 +9129,10 @@
         <v>726</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>51</v>
@@ -9083,7 +9143,7 @@
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
     </row>
-    <row r="296" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>690</v>
       </c>
@@ -9091,10 +9151,10 @@
         <v>726</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>51</v>
@@ -9105,18 +9165,18 @@
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
     </row>
-    <row r="297" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>475</v>
+        <v>25</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>51</v>
@@ -9127,18 +9187,18 @@
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
     </row>
-    <row r="298" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>477</v>
+        <v>148</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>51</v>
@@ -9149,18 +9209,18 @@
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
     </row>
-    <row r="299" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>51</v>
@@ -9176,13 +9236,13 @@
         <v>690</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>480</v>
+        <v>36</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E300" s="6" t="s">
         <v>51</v>
@@ -9193,7 +9253,7 @@
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
     </row>
-    <row r="301" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>690</v>
       </c>
@@ -9201,10 +9261,10 @@
         <v>727</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>51</v>
@@ -9215,7 +9275,7 @@
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
     </row>
-    <row r="302" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>690</v>
       </c>
@@ -9223,10 +9283,10 @@
         <v>727</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E302" s="6" t="s">
         <v>51</v>
@@ -9237,7 +9297,7 @@
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
     </row>
-    <row r="303" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>690</v>
       </c>
@@ -9245,10 +9305,10 @@
         <v>727</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>51</v>
@@ -9259,7 +9319,7 @@
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
     </row>
-    <row r="304" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>690</v>
       </c>
@@ -9267,10 +9327,10 @@
         <v>727</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>51</v>
@@ -9289,10 +9349,10 @@
         <v>727</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>486</v>
+        <v>40</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E305" s="6" t="s">
         <v>51</v>
@@ -9303,7 +9363,7 @@
       <c r="G305" s="6"/>
       <c r="H305" s="6"/>
     </row>
-    <row r="306" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>690</v>
       </c>
@@ -9311,10 +9371,10 @@
         <v>727</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>51</v>
@@ -9325,18 +9385,18 @@
       <c r="G306" s="6"/>
       <c r="H306" s="6"/>
     </row>
-    <row r="307" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>51</v>
@@ -9347,18 +9407,18 @@
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
     </row>
-    <row r="308" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>490</v>
+        <v>347</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>51</v>
@@ -9369,18 +9429,18 @@
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
     </row>
-    <row r="309" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>51</v>
@@ -9391,18 +9451,18 @@
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
     </row>
-    <row r="310" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>690</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>51</v>
@@ -9413,7 +9473,7 @@
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
     </row>
-    <row r="311" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>690</v>
       </c>
@@ -9421,10 +9481,10 @@
         <v>728</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>494</v>
+        <v>87</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>51</v>
@@ -9435,7 +9495,7 @@
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
     </row>
-    <row r="312" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>690</v>
       </c>
@@ -9443,10 +9503,10 @@
         <v>728</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>51</v>
@@ -9457,7 +9517,7 @@
       <c r="G312" s="6"/>
       <c r="H312" s="6"/>
     </row>
-    <row r="313" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>690</v>
       </c>
@@ -9465,10 +9525,10 @@
         <v>728</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>51</v>
@@ -9479,7 +9539,7 @@
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
     </row>
-    <row r="314" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>690</v>
       </c>
@@ -9487,10 +9547,10 @@
         <v>728</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E314" s="6" t="s">
         <v>51</v>
@@ -9501,7 +9561,7 @@
       <c r="G314" s="6"/>
       <c r="H314" s="6"/>
     </row>
-    <row r="315" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>690</v>
       </c>
@@ -9509,10 +9569,10 @@
         <v>728</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>126</v>
+        <v>494</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E315" s="6" t="s">
         <v>51</v>
@@ -9523,7 +9583,7 @@
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
     </row>
-    <row r="316" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>690</v>
       </c>
@@ -9531,10 +9591,10 @@
         <v>728</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>51</v>
@@ -9545,7 +9605,7 @@
       <c r="G316" s="6"/>
       <c r="H316" s="6"/>
     </row>
-    <row r="317" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>690</v>
       </c>
@@ -9553,10 +9613,10 @@
         <v>728</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>402</v>
+        <v>116</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E317" s="6" t="s">
         <v>51</v>
@@ -9567,7 +9627,7 @@
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
     </row>
-    <row r="318" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>690</v>
       </c>
@@ -9575,10 +9635,10 @@
         <v>728</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>504</v>
+        <v>122</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E318" s="6" t="s">
         <v>51</v>
@@ -9589,7 +9649,7 @@
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
     </row>
-    <row r="319" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>690</v>
       </c>
@@ -9597,10 +9657,10 @@
         <v>728</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>392</v>
+        <v>126</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E319" s="6" t="s">
         <v>51</v>
@@ -9611,7 +9671,7 @@
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>690</v>
       </c>
@@ -9619,10 +9679,10 @@
         <v>728</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E320" s="6" t="s">
         <v>51</v>
@@ -9633,95 +9693,95 @@
       <c r="G320" s="6"/>
       <c r="H320" s="6"/>
     </row>
-    <row r="321" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>509</v>
+        <v>402</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="G321" s="6"/>
       <c r="H321" s="6"/>
     </row>
-    <row r="322" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>12</v>
+        <v>504</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E322" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="G322" s="6"/>
       <c r="H322" s="6"/>
     </row>
-    <row r="323" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E323" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="G323" s="6"/>
       <c r="H323" s="6"/>
     </row>
-    <row r="324" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E324" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="G324" s="6"/>
       <c r="H324" s="6"/>
     </row>
-    <row r="325" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>691</v>
       </c>
@@ -9729,10 +9789,10 @@
         <v>729</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E325" s="6" t="s">
         <v>51</v>
@@ -9743,7 +9803,7 @@
       <c r="G325" s="6"/>
       <c r="H325" s="6"/>
     </row>
-    <row r="326" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>691</v>
       </c>
@@ -9751,10 +9811,10 @@
         <v>729</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>517</v>
+        <v>12</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E326" s="6" t="s">
         <v>51</v>
@@ -9765,7 +9825,7 @@
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
     </row>
-    <row r="327" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>691</v>
       </c>
@@ -9773,10 +9833,10 @@
         <v>729</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E327" s="6" t="s">
         <v>51</v>
@@ -9787,7 +9847,7 @@
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
     </row>
-    <row r="328" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>691</v>
       </c>
@@ -9795,10 +9855,10 @@
         <v>729</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E328" s="6" t="s">
         <v>51</v>
@@ -9809,7 +9869,7 @@
       <c r="G328" s="6"/>
       <c r="H328" s="6"/>
     </row>
-    <row r="329" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>691</v>
       </c>
@@ -9817,10 +9877,10 @@
         <v>729</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>146</v>
+        <v>515</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E329" s="6" t="s">
         <v>51</v>
@@ -9831,7 +9891,7 @@
       <c r="G329" s="6"/>
       <c r="H329" s="6"/>
     </row>
-    <row r="330" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>691</v>
       </c>
@@ -9839,10 +9899,10 @@
         <v>729</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E330" s="6" t="s">
         <v>51</v>
@@ -9853,7 +9913,7 @@
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
     </row>
-    <row r="331" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>691</v>
       </c>
@@ -9861,10 +9921,10 @@
         <v>729</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E331" s="6" t="s">
         <v>51</v>
@@ -9875,7 +9935,7 @@
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
     </row>
-    <row r="332" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>691</v>
       </c>
@@ -9883,10 +9943,10 @@
         <v>729</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E332" s="6" t="s">
         <v>51</v>
@@ -9897,7 +9957,7 @@
       <c r="G332" s="6"/>
       <c r="H332" s="6"/>
     </row>
-    <row r="333" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>691</v>
       </c>
@@ -9905,10 +9965,10 @@
         <v>729</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>526</v>
+        <v>146</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E333" s="6" t="s">
         <v>51</v>
@@ -9919,7 +9979,7 @@
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
     </row>
-    <row r="334" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>691</v>
       </c>
@@ -9927,10 +9987,10 @@
         <v>729</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E334" s="6" t="s">
         <v>51</v>
@@ -9941,7 +10001,7 @@
       <c r="G334" s="6"/>
       <c r="H334" s="6"/>
     </row>
-    <row r="335" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>691</v>
       </c>
@@ -9949,10 +10009,10 @@
         <v>729</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E335" s="6" t="s">
         <v>51</v>
@@ -9963,7 +10023,7 @@
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
     </row>
-    <row r="336" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>691</v>
       </c>
@@ -9971,10 +10031,10 @@
         <v>729</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E336" s="6" t="s">
         <v>51</v>
@@ -9985,18 +10045,18 @@
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
     </row>
-    <row r="337" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E337" s="6" t="s">
         <v>51</v>
@@ -10007,18 +10067,18 @@
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
     </row>
-    <row r="338" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E338" s="6" t="s">
         <v>51</v>
@@ -10029,18 +10089,18 @@
       <c r="G338" s="6"/>
       <c r="H338" s="6"/>
     </row>
-    <row r="339" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>536</v>
+        <v>182</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>51</v>
@@ -10051,18 +10111,18 @@
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
     </row>
-    <row r="340" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E340" s="6" t="s">
         <v>51</v>
@@ -10073,7 +10133,7 @@
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
     </row>
-    <row r="341" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>691</v>
       </c>
@@ -10081,10 +10141,10 @@
         <v>730</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E341" s="6" t="s">
         <v>51</v>
@@ -10095,7 +10155,7 @@
       <c r="G341" s="6"/>
       <c r="H341" s="6"/>
     </row>
-    <row r="342" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>691</v>
       </c>
@@ -10103,10 +10163,10 @@
         <v>730</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>38</v>
+        <v>534</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E342" s="6" t="s">
         <v>51</v>
@@ -10117,7 +10177,7 @@
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
     </row>
-    <row r="343" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>691</v>
       </c>
@@ -10125,10 +10185,10 @@
         <v>730</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>29</v>
+        <v>536</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E343" s="6" t="s">
         <v>51</v>
@@ -10139,7 +10199,7 @@
       <c r="G343" s="6"/>
       <c r="H343" s="6"/>
     </row>
-    <row r="344" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>691</v>
       </c>
@@ -10147,10 +10207,10 @@
         <v>730</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E344" s="6" t="s">
         <v>51</v>
@@ -10161,7 +10221,7 @@
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
     </row>
-    <row r="345" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>691</v>
       </c>
@@ -10169,10 +10229,10 @@
         <v>730</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E345" s="6" t="s">
         <v>51</v>
@@ -10183,7 +10243,7 @@
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
     </row>
-    <row r="346" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>691</v>
       </c>
@@ -10191,10 +10251,10 @@
         <v>730</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E346" s="6" t="s">
         <v>51</v>
@@ -10205,18 +10265,18 @@
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
     </row>
-    <row r="347" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>545</v>
+        <v>29</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E347" s="6" t="s">
         <v>51</v>
@@ -10227,18 +10287,18 @@
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
     </row>
-    <row r="348" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>547</v>
+        <v>42</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E348" s="6" t="s">
         <v>51</v>
@@ -10249,18 +10309,18 @@
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
     </row>
-    <row r="349" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>549</v>
+        <v>285</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E349" s="6" t="s">
         <v>51</v>
@@ -10271,18 +10331,18 @@
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
     </row>
-    <row r="350" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>551</v>
+        <v>47</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E350" s="6" t="s">
         <v>51</v>
@@ -10293,7 +10353,7 @@
       <c r="G350" s="6"/>
       <c r="H350" s="6"/>
     </row>
-    <row r="351" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>691</v>
       </c>
@@ -10301,10 +10361,10 @@
         <v>731</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>25</v>
+        <v>545</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E351" s="6" t="s">
         <v>51</v>
@@ -10315,7 +10375,7 @@
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
     </row>
-    <row r="352" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>691</v>
       </c>
@@ -10323,10 +10383,10 @@
         <v>731</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E352" s="6" t="s">
         <v>51</v>
@@ -10337,7 +10397,7 @@
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
     </row>
-    <row r="353" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>691</v>
       </c>
@@ -10345,10 +10405,10 @@
         <v>731</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>85</v>
+        <v>549</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E353" s="6" t="s">
         <v>51</v>
@@ -10359,18 +10419,18 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
     </row>
-    <row r="354" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>118</v>
+        <v>551</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E354" s="6" t="s">
         <v>51</v>
@@ -10381,18 +10441,18 @@
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
     </row>
-    <row r="355" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E355" s="6" t="s">
         <v>51</v>
@@ -10403,18 +10463,18 @@
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
     </row>
-    <row r="356" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E356" s="6" t="s">
         <v>51</v>
@@ -10425,18 +10485,18 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
     </row>
-    <row r="357" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>691</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E357" s="6" t="s">
         <v>51</v>
@@ -10447,7 +10507,7 @@
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
     </row>
-    <row r="358" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>691</v>
       </c>
@@ -10455,10 +10515,10 @@
         <v>732</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E358" s="6" t="s">
         <v>51</v>
@@ -10469,7 +10529,7 @@
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
     </row>
-    <row r="359" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>691</v>
       </c>
@@ -10477,10 +10537,10 @@
         <v>732</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E359" s="6" t="s">
         <v>51</v>
@@ -10491,7 +10551,7 @@
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
     </row>
-    <row r="360" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>691</v>
       </c>
@@ -10499,10 +10559,10 @@
         <v>732</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>562</v>
+        <v>100</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E360" s="6" t="s">
         <v>51</v>
@@ -10513,7 +10573,7 @@
       <c r="G360" s="6"/>
       <c r="H360" s="6"/>
     </row>
-    <row r="361" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>691</v>
       </c>
@@ -10521,10 +10581,10 @@
         <v>732</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E361" s="6" t="s">
         <v>51</v>
@@ -10535,7 +10595,7 @@
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
     </row>
-    <row r="362" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>691</v>
       </c>
@@ -10543,10 +10603,10 @@
         <v>732</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E362" s="6" t="s">
         <v>51</v>
@@ -10557,7 +10617,7 @@
       <c r="G362" s="6"/>
       <c r="H362" s="6"/>
     </row>
-    <row r="363" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>691</v>
       </c>
@@ -10565,10 +10625,10 @@
         <v>732</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>486</v>
+        <v>312</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E363" s="6" t="s">
         <v>51</v>
@@ -10579,7 +10639,7 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
     </row>
-    <row r="364" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>691</v>
       </c>
@@ -10587,10 +10647,10 @@
         <v>732</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E364" s="6" t="s">
         <v>51</v>
@@ -10601,7 +10661,7 @@
       <c r="G364" s="6"/>
       <c r="H364" s="6"/>
     </row>
-    <row r="365" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>691</v>
       </c>
@@ -10609,10 +10669,10 @@
         <v>732</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E365" s="6" t="s">
         <v>51</v>
@@ -10623,7 +10683,7 @@
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
     </row>
-    <row r="366" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>691</v>
       </c>
@@ -10631,10 +10691,10 @@
         <v>732</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>87</v>
+        <v>347</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E366" s="6" t="s">
         <v>51</v>
@@ -10645,7 +10705,7 @@
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
     </row>
-    <row r="367" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>691</v>
       </c>
@@ -10653,10 +10713,10 @@
         <v>732</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>373</v>
+        <v>486</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E367" s="6" t="s">
         <v>51</v>
@@ -10667,7 +10727,7 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>691</v>
       </c>
@@ -10675,10 +10735,10 @@
         <v>732</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E368" s="6" t="s">
         <v>51</v>
@@ -10689,95 +10749,95 @@
       <c r="G368" s="6"/>
       <c r="H368" s="6"/>
     </row>
-    <row r="369" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>572</v>
+        <v>116</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E369" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="G369" s="6"/>
       <c r="H369" s="6"/>
     </row>
-    <row r="370" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>575</v>
+        <v>87</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E370" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
     </row>
-    <row r="371" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>577</v>
+        <v>373</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E371" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
     </row>
-    <row r="372" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>579</v>
+        <v>377</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E372" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
     </row>
-    <row r="373" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>692</v>
       </c>
@@ -10785,10 +10845,10 @@
         <v>733</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E373" s="6" t="s">
         <v>51</v>
@@ -10799,7 +10859,7 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
     </row>
-    <row r="374" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>692</v>
       </c>
@@ -10807,10 +10867,10 @@
         <v>733</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="E374" s="6" t="s">
         <v>51</v>
@@ -10821,7 +10881,7 @@
       <c r="G374" s="6"/>
       <c r="H374" s="6"/>
     </row>
-    <row r="375" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>692</v>
       </c>
@@ -10829,10 +10889,10 @@
         <v>733</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>49</v>
+        <v>577</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E375" s="6" t="s">
         <v>51</v>
@@ -10843,18 +10903,18 @@
       <c r="G375" s="6"/>
       <c r="H375" s="6"/>
     </row>
-    <row r="376" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>692</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E376" s="6" t="s">
         <v>51</v>
@@ -10865,18 +10925,18 @@
       <c r="G376" s="6"/>
       <c r="H376" s="6"/>
     </row>
-    <row r="377" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>692</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E377" s="6" t="s">
         <v>51</v>
@@ -10887,18 +10947,18 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
     </row>
-    <row r="378" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>692</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>6</v>
+        <v>583</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E378" s="6" t="s">
         <v>51</v>
@@ -10909,95 +10969,95 @@
       <c r="G378" s="6"/>
       <c r="H378" s="6"/>
     </row>
-    <row r="379" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>591</v>
+        <v>49</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E379" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G379" s="6"/>
       <c r="H379" s="6"/>
     </row>
-    <row r="380" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>424</v>
+        <v>587</v>
       </c>
       <c r="E380" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
     </row>
-    <row r="381" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>10</v>
+        <v>588</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>178</v>
+        <v>589</v>
       </c>
       <c r="E381" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
     </row>
-    <row r="382" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>56</v>
+        <v>590</v>
       </c>
       <c r="E382" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G382" s="6"/>
       <c r="H382" s="6"/>
     </row>
-    <row r="383" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>693</v>
       </c>
@@ -11005,10 +11065,10 @@
         <v>735</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>16</v>
+        <v>591</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E383" s="6" t="s">
         <v>51</v>
@@ -11019,7 +11079,7 @@
       <c r="G383" s="6"/>
       <c r="H383" s="6"/>
     </row>
-    <row r="384" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>693</v>
       </c>
@@ -11027,10 +11087,10 @@
         <v>735</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>595</v>
+        <v>424</v>
       </c>
       <c r="E384" s="6" t="s">
         <v>51</v>
@@ -11041,7 +11101,7 @@
       <c r="G384" s="6"/>
       <c r="H384" s="6"/>
     </row>
-    <row r="385" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>693</v>
       </c>
@@ -11049,10 +11109,10 @@
         <v>735</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>596</v>
+        <v>10</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>597</v>
+        <v>178</v>
       </c>
       <c r="E385" s="6" t="s">
         <v>51</v>
@@ -11063,7 +11123,7 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
     </row>
-    <row r="386" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>693</v>
       </c>
@@ -11071,10 +11131,10 @@
         <v>735</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>598</v>
+        <v>14</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>599</v>
+        <v>56</v>
       </c>
       <c r="E386" s="6" t="s">
         <v>51</v>
@@ -11085,7 +11145,7 @@
       <c r="G386" s="6"/>
       <c r="H386" s="6"/>
     </row>
-    <row r="387" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>693</v>
       </c>
@@ -11093,10 +11153,10 @@
         <v>735</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E387" s="6" t="s">
         <v>51</v>
@@ -11115,10 +11175,10 @@
         <v>735</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>602</v>
+        <v>57</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E388" s="6" t="s">
         <v>51</v>
@@ -11129,7 +11189,7 @@
       <c r="G388" s="6"/>
       <c r="H388" s="6"/>
     </row>
-    <row r="389" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>693</v>
       </c>
@@ -11137,10 +11197,10 @@
         <v>735</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E389" s="6" t="s">
         <v>51</v>
@@ -11151,7 +11211,7 @@
       <c r="G389" s="6"/>
       <c r="H389" s="6"/>
     </row>
-    <row r="390" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>693</v>
       </c>
@@ -11159,10 +11219,10 @@
         <v>735</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E390" s="6" t="s">
         <v>51</v>
@@ -11173,18 +11233,18 @@
       <c r="G390" s="6"/>
       <c r="H390" s="6"/>
     </row>
-    <row r="391" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E391" s="6" t="s">
         <v>51</v>
@@ -11195,18 +11255,18 @@
       <c r="G391" s="6"/>
       <c r="H391" s="6"/>
     </row>
-    <row r="392" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E392" s="6" t="s">
         <v>51</v>
@@ -11217,18 +11277,18 @@
       <c r="G392" s="6"/>
       <c r="H392" s="6"/>
     </row>
-    <row r="393" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>29</v>
+        <v>604</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E393" s="6" t="s">
         <v>51</v>
@@ -11239,18 +11299,18 @@
       <c r="G393" s="6"/>
       <c r="H393" s="6"/>
     </row>
-    <row r="394" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>40</v>
+        <v>606</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E394" s="6" t="s">
         <v>51</v>
@@ -11261,18 +11321,18 @@
       <c r="G394" s="6"/>
       <c r="H394" s="6"/>
     </row>
-    <row r="395" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E395" s="6" t="s">
         <v>51</v>
@@ -11283,7 +11343,7 @@
       <c r="G395" s="6"/>
       <c r="H395" s="6"/>
     </row>
-    <row r="396" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>693</v>
       </c>
@@ -11291,10 +11351,10 @@
         <v>737</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>182</v>
+        <v>609</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E396" s="6" t="s">
         <v>51</v>
@@ -11305,7 +11365,7 @@
       <c r="G396" s="6"/>
       <c r="H396" s="6"/>
     </row>
-    <row r="397" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>693</v>
       </c>
@@ -11313,10 +11373,10 @@
         <v>737</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E397" s="6" t="s">
         <v>51</v>
@@ -11327,7 +11387,7 @@
       <c r="G397" s="6"/>
       <c r="H397" s="6"/>
     </row>
-    <row r="398" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>693</v>
       </c>
@@ -11335,10 +11395,10 @@
         <v>737</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E398" s="6" t="s">
         <v>51</v>
@@ -11349,18 +11409,18 @@
       <c r="G398" s="6"/>
       <c r="H398" s="6"/>
     </row>
-    <row r="399" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>617</v>
+        <v>36</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E399" s="6" t="s">
         <v>51</v>
@@ -11371,18 +11431,18 @@
       <c r="G399" s="6"/>
       <c r="H399" s="6"/>
     </row>
-    <row r="400" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E400" s="6" t="s">
         <v>51</v>
@@ -11393,18 +11453,18 @@
       <c r="G400" s="6"/>
       <c r="H400" s="6"/>
     </row>
-    <row r="401" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>620</v>
+        <v>27</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E401" s="6" t="s">
         <v>51</v>
@@ -11415,18 +11475,18 @@
       <c r="G401" s="6"/>
       <c r="H401" s="6"/>
     </row>
-    <row r="402" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>622</v>
+        <v>42</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E402" s="6" t="s">
         <v>51</v>
@@ -11437,18 +11497,18 @@
       <c r="G402" s="6"/>
       <c r="H402" s="6"/>
     </row>
-    <row r="403" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E403" s="6" t="s">
         <v>51</v>
@@ -11459,18 +11519,18 @@
       <c r="G403" s="6"/>
       <c r="H403" s="6"/>
     </row>
-    <row r="404" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E404" s="6" t="s">
         <v>51</v>
@@ -11481,18 +11541,18 @@
       <c r="G404" s="6"/>
       <c r="H404" s="6"/>
     </row>
-    <row r="405" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E405" s="6" t="s">
         <v>51</v>
@@ -11503,18 +11563,18 @@
       <c r="G405" s="6"/>
       <c r="H405" s="6"/>
     </row>
-    <row r="406" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E406" s="6" t="s">
         <v>51</v>
@@ -11525,7 +11585,7 @@
       <c r="G406" s="6"/>
       <c r="H406" s="6"/>
     </row>
-    <row r="407" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>693</v>
       </c>
@@ -11533,10 +11593,10 @@
         <v>739</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>42</v>
+        <v>624</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E407" s="6" t="s">
         <v>51</v>
@@ -11547,7 +11607,7 @@
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
     </row>
-    <row r="408" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>693</v>
       </c>
@@ -11555,10 +11615,10 @@
         <v>739</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>631</v>
+        <v>150</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E408" s="6" t="s">
         <v>51</v>
@@ -11569,7 +11629,7 @@
       <c r="G408" s="6"/>
       <c r="H408" s="6"/>
     </row>
-    <row r="409" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>693</v>
       </c>
@@ -11577,10 +11637,10 @@
         <v>739</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>633</v>
+        <v>160</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E409" s="6" t="s">
         <v>51</v>
@@ -11591,7 +11651,7 @@
       <c r="G409" s="6"/>
       <c r="H409" s="6"/>
     </row>
-    <row r="410" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>693</v>
       </c>
@@ -11599,10 +11659,10 @@
         <v>739</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E410" s="6" t="s">
         <v>51</v>
@@ -11613,7 +11673,7 @@
       <c r="G410" s="6"/>
       <c r="H410" s="6"/>
     </row>
-    <row r="411" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>693</v>
       </c>
@@ -11621,10 +11681,10 @@
         <v>739</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E411" s="6" t="s">
         <v>51</v>
@@ -11635,7 +11695,7 @@
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
     </row>
-    <row r="412" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>693</v>
       </c>
@@ -11643,10 +11703,10 @@
         <v>739</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>110</v>
+        <v>631</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E412" s="6" t="s">
         <v>51</v>
@@ -11657,7 +11717,7 @@
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
     </row>
-    <row r="413" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>693</v>
       </c>
@@ -11665,10 +11725,10 @@
         <v>739</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E413" s="6" t="s">
         <v>51</v>
@@ -11679,7 +11739,7 @@
       <c r="G413" s="6"/>
       <c r="H413" s="6"/>
     </row>
-    <row r="414" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>693</v>
       </c>
@@ -11687,10 +11747,10 @@
         <v>739</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E414" s="6" t="s">
         <v>51</v>
@@ -11701,7 +11761,7 @@
       <c r="G414" s="6"/>
       <c r="H414" s="6"/>
     </row>
-    <row r="415" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>693</v>
       </c>
@@ -11709,10 +11769,10 @@
         <v>739</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E415" s="6" t="s">
         <v>51</v>
@@ -11723,18 +11783,18 @@
       <c r="G415" s="6"/>
       <c r="H415" s="6"/>
     </row>
-    <row r="416" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E416" s="6" t="s">
         <v>51</v>
@@ -11745,18 +11805,18 @@
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
     </row>
-    <row r="417" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>120</v>
+        <v>638</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E417" s="6" t="s">
         <v>51</v>
@@ -11767,18 +11827,18 @@
       <c r="G417" s="6"/>
       <c r="H417" s="6"/>
     </row>
-    <row r="418" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>644</v>
+        <v>112</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E418" s="6" t="s">
         <v>51</v>
@@ -11789,18 +11849,18 @@
       <c r="G418" s="6"/>
       <c r="H418" s="6"/>
     </row>
-    <row r="419" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E419" s="6" t="s">
         <v>51</v>
@@ -11811,7 +11871,7 @@
       <c r="G419" s="6"/>
       <c r="H419" s="6"/>
     </row>
-    <row r="420" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>693</v>
       </c>
@@ -11819,10 +11879,10 @@
         <v>740</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E420" s="6" t="s">
         <v>51</v>
@@ -11833,7 +11893,7 @@
       <c r="G420" s="6"/>
       <c r="H420" s="6"/>
     </row>
-    <row r="421" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>693</v>
       </c>
@@ -11841,10 +11901,10 @@
         <v>740</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E421" s="6" t="s">
         <v>51</v>
@@ -11855,7 +11915,7 @@
       <c r="G421" s="6"/>
       <c r="H421" s="6"/>
     </row>
-    <row r="422" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>693</v>
       </c>
@@ -11863,10 +11923,10 @@
         <v>740</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E422" s="6" t="s">
         <v>51</v>
@@ -11877,7 +11937,7 @@
       <c r="G422" s="6"/>
       <c r="H422" s="6"/>
     </row>
-    <row r="423" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>693</v>
       </c>
@@ -11885,10 +11945,10 @@
         <v>740</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>651</v>
+        <v>87</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E423" s="6" t="s">
         <v>51</v>
@@ -11899,7 +11959,7 @@
       <c r="G423" s="6"/>
       <c r="H423" s="6"/>
     </row>
-    <row r="424" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>693</v>
       </c>
@@ -11907,10 +11967,10 @@
         <v>740</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>507</v>
+        <v>126</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E424" s="6" t="s">
         <v>51</v>
@@ -11921,7 +11981,7 @@
       <c r="G424" s="6"/>
       <c r="H424" s="6"/>
     </row>
-    <row r="425" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>693</v>
       </c>
@@ -11929,10 +11989,10 @@
         <v>740</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E425" s="6" t="s">
         <v>51</v>
@@ -11943,7 +12003,7 @@
       <c r="G425" s="6"/>
       <c r="H425" s="6"/>
     </row>
-    <row r="426" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>693</v>
       </c>
@@ -11951,10 +12011,10 @@
         <v>740</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E426" s="6" t="s">
         <v>51</v>
@@ -11965,7 +12025,7 @@
       <c r="G426" s="6"/>
       <c r="H426" s="6"/>
     </row>
-    <row r="427" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>693</v>
       </c>
@@ -11973,10 +12033,10 @@
         <v>740</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>396</v>
+        <v>651</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E427" s="6" t="s">
         <v>51</v>
@@ -11987,18 +12047,18 @@
       <c r="G427" s="6"/>
       <c r="H427" s="6"/>
     </row>
-    <row r="428" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>658</v>
+        <v>507</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E428" s="6" t="s">
         <v>51</v>
@@ -12014,13 +12074,13 @@
         <v>693</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>660</v>
+        <v>394</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E429" s="6" t="s">
         <v>51</v>
@@ -12031,18 +12091,18 @@
       <c r="G429" s="6"/>
       <c r="H429" s="6"/>
     </row>
-    <row r="430" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E430" s="6" t="s">
         <v>51</v>
@@ -12053,18 +12113,18 @@
       <c r="G430" s="6"/>
       <c r="H430" s="6"/>
     </row>
-    <row r="431" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E431" s="6" t="s">
         <v>51</v>
@@ -12075,7 +12135,7 @@
       <c r="G431" s="6"/>
       <c r="H431" s="6"/>
     </row>
-    <row r="432" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>693</v>
       </c>
@@ -12083,10 +12143,10 @@
         <v>741</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>85</v>
+        <v>658</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E432" s="6" t="s">
         <v>51</v>
@@ -12097,7 +12157,7 @@
       <c r="G432" s="6"/>
       <c r="H432" s="6"/>
     </row>
-    <row r="433" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>693</v>
       </c>
@@ -12105,10 +12165,10 @@
         <v>741</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>312</v>
+        <v>660</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E433" s="6" t="s">
         <v>51</v>
@@ -12119,7 +12179,7 @@
       <c r="G433" s="6"/>
       <c r="H433" s="6"/>
     </row>
-    <row r="434" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>693</v>
       </c>
@@ -12127,10 +12187,10 @@
         <v>741</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>102</v>
+        <v>662</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E434" s="6" t="s">
         <v>51</v>
@@ -12141,7 +12201,7 @@
       <c r="G434" s="6"/>
       <c r="H434" s="6"/>
     </row>
-    <row r="435" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
         <v>693</v>
       </c>
@@ -12149,10 +12209,10 @@
         <v>741</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>490</v>
+        <v>47</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E435" s="6" t="s">
         <v>51</v>
@@ -12163,7 +12223,7 @@
       <c r="G435" s="6"/>
       <c r="H435" s="6"/>
     </row>
-    <row r="436" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>693</v>
       </c>
@@ -12171,10 +12231,10 @@
         <v>741</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E436" s="6" t="s">
         <v>51</v>
@@ -12185,7 +12245,7 @@
       <c r="G436" s="6"/>
       <c r="H436" s="6"/>
     </row>
-    <row r="437" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>693</v>
       </c>
@@ -12193,10 +12253,10 @@
         <v>741</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>501</v>
+        <v>312</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E437" s="6" t="s">
         <v>51</v>
@@ -12207,7 +12267,7 @@
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
     </row>
-    <row r="438" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>693</v>
       </c>
@@ -12215,10 +12275,10 @@
         <v>741</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>671</v>
+        <v>102</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E438" s="6" t="s">
         <v>51</v>
@@ -12229,7 +12289,7 @@
       <c r="G438" s="6"/>
       <c r="H438" s="6"/>
     </row>
-    <row r="439" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>693</v>
       </c>
@@ -12237,10 +12297,10 @@
         <v>741</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>402</v>
+        <v>490</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E439" s="6" t="s">
         <v>51</v>
@@ -12251,7 +12311,7 @@
       <c r="G439" s="6"/>
       <c r="H439" s="6"/>
     </row>
-    <row r="440" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>693</v>
       </c>
@@ -12259,10 +12319,10 @@
         <v>741</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E440" s="6" t="s">
         <v>51</v>
@@ -12273,7 +12333,7 @@
       <c r="G440" s="6"/>
       <c r="H440" s="6"/>
     </row>
-    <row r="441" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>693</v>
       </c>
@@ -12281,10 +12341,10 @@
         <v>741</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E441" s="6" t="s">
         <v>51</v>
@@ -12295,18 +12355,18 @@
       <c r="G441" s="6"/>
       <c r="H441" s="6"/>
     </row>
-    <row r="442" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>369</v>
+        <v>671</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E442" s="6" t="s">
         <v>51</v>
@@ -12317,18 +12377,18 @@
       <c r="G442" s="6"/>
       <c r="H442" s="6"/>
     </row>
-    <row r="443" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>677</v>
+        <v>402</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E443" s="6" t="s">
         <v>51</v>
@@ -12339,18 +12399,18 @@
       <c r="G443" s="6"/>
       <c r="H443" s="6"/>
     </row>
-    <row r="444" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E444" s="6" t="s">
         <v>51</v>
@@ -12361,18 +12421,18 @@
       <c r="G444" s="6"/>
       <c r="H444" s="6"/>
     </row>
-    <row r="445" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>693</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E445" s="6" t="s">
         <v>51</v>
@@ -12383,7 +12443,7 @@
       <c r="G445" s="6"/>
       <c r="H445" s="6"/>
     </row>
-    <row r="446" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>693</v>
       </c>
@@ -12391,10 +12451,10 @@
         <v>742</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E446" s="6" t="s">
         <v>51</v>
@@ -12405,7 +12465,108 @@
       <c r="G446" s="6"/>
       <c r="H446" s="6"/>
     </row>
+    <row r="447" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A447" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E447" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F447" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
+    </row>
+    <row r="448" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A448" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E448" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F448" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
+    </row>
+    <row r="449" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A449" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E449" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F449" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
+    </row>
+    <row r="450" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A450" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E450" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F450" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_1" xr:uid="{0AD75D51-93E2-1645-BDEC-9FC4EA634702}"/>
+    <hyperlink ref="F3" r:id="rId2" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_2" xr:uid="{4D6CBBF8-E395-AE4B-89A6-8880C8E690CD}"/>
+    <hyperlink ref="F4" r:id="rId3" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_3" xr:uid="{9F24EBC7-04C9-BE45-95DF-B0ED22191E63}"/>
+    <hyperlink ref="F5" r:id="rId4" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_5" xr:uid="{C0E516BE-A9F4-534D-970E-6378D0B667BB}"/>
+    <hyperlink ref="F6" r:id="rId5" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_6" xr:uid="{8669568E-6617-7541-A6C9-14BF70A48B18}"/>
+    <hyperlink ref="F7" r:id="rId6" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_7" xr:uid="{CB7912D8-5294-A44D-91F9-1F2B904818D8}"/>
+    <hyperlink ref="F8" r:id="rId7" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_7" xr:uid="{2E72ADF9-CE69-5F4F-AC3D-2C0B282A3326}"/>
+    <hyperlink ref="F9" r:id="rId8" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_8" xr:uid="{73F60AA0-37D0-A041-BB8E-D9213056083C}"/>
+    <hyperlink ref="F10" r:id="rId9" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_9" xr:uid="{618642EC-6B6D-CF4F-891E-31095176A5A9}"/>
+    <hyperlink ref="F11" r:id="rId10" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_12" xr:uid="{AFD57390-E6A5-074B-BDDD-A35FD9F688F0}"/>
+    <hyperlink ref="F12" r:id="rId11" location="tabc01f934a-cf10-48f6-b6b7-142d4e0d432d_16" xr:uid="{7DFDC68F-E973-7A48-8EF4-C053AF77B47E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Votes/VoteGuide.xlsx
+++ b/Votes/VoteGuide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/Votes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF8AB92-F4EA-BF45-AF8A-342B210B972D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B33E90-5ACF-914F-A332-D32785736B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1840" windowWidth="68300" windowHeight="23680" xr2:uid="{36A24679-F640-1941-A82D-D01C55315735}"/>
+    <workbookView xWindow="500" yWindow="-26360" windowWidth="68300" windowHeight="23680" xr2:uid="{36A24679-F640-1941-A82D-D01C55315735}"/>
   </bookViews>
   <sheets>
     <sheet name="Vote guide" sheetId="1" r:id="rId1"/>
